--- a/public/template/TemplateUniversitasKedua.xlsx
+++ b/public/template/TemplateUniversitasKedua.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5263B5-F970-4D6B-9040-F210E8CA4050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35E795-CDB1-47BF-A0E7-2E533F9EF900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{353ACB60-320D-4C37-A056-13C334B42BD4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nama Universitas</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Passing Grade</t>
+  </si>
+  <si>
+    <t>ID Kelompok</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672E814A-9AAB-42BE-A3FC-682B639637D0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,9 +406,10 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +419,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
